--- a/Experiments/15_mtc1.xlsx
+++ b/Experiments/15_mtc1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.ashimov\Desktop\master_thesis\Experiments\mtc1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C454E-45E7-49E4-9DE0-B6F85F5E3CFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -70,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,18 +82,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -129,33 +117,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,9 +172,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,27 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,16 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -518,7 +459,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D2">
         <v>10000</v>
@@ -527,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>256.89755249023438</v>
+        <v>180.0269012451172</v>
       </c>
       <c r="G2">
-        <v>5.3486647605895996</v>
+        <v>20.09396171569824</v>
       </c>
       <c r="H2">
-        <v>0.95122268654154751</v>
+        <v>0.8899987710440099</v>
       </c>
       <c r="I2">
-        <v>0.94201593100209102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.782164377669256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -547,7 +488,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D3">
         <v>10000</v>
@@ -556,19 +497,19 @@
         <v>0.1</v>
       </c>
       <c r="F3">
-        <v>31.401054382324219</v>
+        <v>43.14620590209961</v>
       </c>
       <c r="G3">
-        <v>6.1101861000061044</v>
+        <v>18.56805801391602</v>
       </c>
       <c r="H3">
-        <v>0.94319009067427306</v>
+        <v>0.8928728969968953</v>
       </c>
       <c r="I3">
-        <v>0.93376039475108741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.7987065202877555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -576,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -585,19 +526,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.9918131828308114</v>
+        <v>11.5453634262085</v>
       </c>
       <c r="G4">
-        <v>4.4030523300170898</v>
+        <v>17.98641777038574</v>
       </c>
       <c r="H4">
-        <v>0.96223485288315547</v>
+        <v>0.9126513585491357</v>
       </c>
       <c r="I4">
-        <v>0.95226717157914387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8050119481951271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -605,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -614,19 +555,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>204.22691345214841</v>
+        <v>151.5898284912109</v>
       </c>
       <c r="G5">
-        <v>3.890783548355103</v>
+        <v>15.01080894470215</v>
       </c>
       <c r="H5">
-        <v>0.96771477656414218</v>
+        <v>0.93316553690649</v>
       </c>
       <c r="I5">
-        <v>0.95782060237214117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8372700896963648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -634,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D6">
         <v>10000</v>
@@ -643,19 +584,19 @@
         <v>0.1</v>
       </c>
       <c r="F6">
-        <v>23.659927368164059</v>
+        <v>23.44079399108887</v>
       </c>
       <c r="G6">
-        <v>3.946338415145874</v>
+        <v>15.70918369293213</v>
       </c>
       <c r="H6">
-        <v>0.96604718332314776</v>
+        <v>0.9220842702419825</v>
       </c>
       <c r="I6">
-        <v>0.95721834004612971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8296990986063223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -663,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D7">
         <v>10000</v>
@@ -672,19 +613,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.0080842971801758</v>
+        <v>10.25852966308594</v>
       </c>
       <c r="G7">
-        <v>3.2192618846893311</v>
+        <v>17.05198097229004</v>
       </c>
       <c r="H7">
-        <v>0.96967804072994146</v>
+        <v>0.9223873427513427</v>
       </c>
       <c r="I7">
-        <v>0.96510046673646566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8151420543924837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -692,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D8">
         <v>10000</v>
@@ -701,19 +642,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>298.7530517578125</v>
+        <v>201.9574737548828</v>
       </c>
       <c r="G8">
-        <v>2.8559613227844238</v>
+        <v>155.1803894042969</v>
       </c>
       <c r="H8">
-        <v>0.98408280898766498</v>
+        <v>-0.5279984823662442</v>
       </c>
       <c r="I8">
-        <v>0.96903895021947473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.6822873024646159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -721,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D9">
         <v>10000</v>
@@ -730,19 +671,19 @@
         <v>0.1</v>
       </c>
       <c r="F9">
-        <v>21.437334060668949</v>
+        <v>32.80532073974609</v>
       </c>
       <c r="G9">
-        <v>2.683327198028564</v>
+        <v>23.10737037658691</v>
       </c>
       <c r="H9">
-        <v>0.98028084098620183</v>
+        <v>0.9143809505355487</v>
       </c>
       <c r="I9">
-        <v>0.97091045604699933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.7494965037739389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -750,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D10">
         <v>10000</v>
@@ -759,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.0435740947723389</v>
+        <v>7.465819358825684</v>
       </c>
       <c r="G10">
-        <v>2.030579566955566</v>
+        <v>15.51949977874756</v>
       </c>
       <c r="H10">
-        <v>0.98453911709940012</v>
+        <v>0.9435154786621647</v>
       </c>
       <c r="I10">
-        <v>0.97798679152234202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8317554630036923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -779,7 +720,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -788,19 +729,19 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>231.60679626464841</v>
+        <v>104.2032012939453</v>
       </c>
       <c r="G11">
-        <v>1.5020855665206909</v>
+        <v>14.27558326721191</v>
       </c>
       <c r="H11">
-        <v>0.98743676116146661</v>
+        <v>0.9641931904810659</v>
       </c>
       <c r="I11">
-        <v>0.98371611475930854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8452405699757781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -808,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -817,19 +758,19 @@
         <v>0.1</v>
       </c>
       <c r="F12">
-        <v>26.082859039306641</v>
+        <v>11.4423246383667</v>
       </c>
       <c r="G12">
-        <v>1.8560724258422849</v>
+        <v>13.72316360473633</v>
       </c>
       <c r="H12">
-        <v>0.98721914355773943</v>
+        <v>0.9641417652020444</v>
       </c>
       <c r="I12">
-        <v>0.97987859745768668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8512292549810884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -837,7 +778,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D13">
         <v>10000</v>
@@ -846,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.605921745300293</v>
+        <v>5.977700233459473</v>
       </c>
       <c r="G13">
-        <v>2.5253298282623291</v>
+        <v>16.8825511932373</v>
       </c>
       <c r="H13">
-        <v>0.98785069817347826</v>
+        <v>0.9547768318247456</v>
       </c>
       <c r="I13">
-        <v>0.97262328180584645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8169788015363688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -866,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -875,74 +816,74 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>212.3962097167969</v>
+        <v>81.33499908447266</v>
       </c>
       <c r="G14">
-        <v>1.558086156845093</v>
+        <v>15.1666898727417</v>
       </c>
       <c r="H14">
-        <v>0.9901518310459213</v>
+        <v>0.9752386620472959</v>
       </c>
       <c r="I14">
-        <v>0.9831090229010776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>0.8355801810982024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C15">
+        <v>0.0005</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="F15" s="2">
-        <v>25.15943717956543</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.4997861385345459</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.98972353920833356</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.98374104370342474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="F15">
+        <v>14.70415592193604</v>
+      </c>
+      <c r="G15">
+        <v>10.71093559265137</v>
+      </c>
+      <c r="H15">
+        <v>0.9755686971529158</v>
+      </c>
+      <c r="I15">
+        <v>0.883884351965048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C16">
+        <v>0.0005</v>
+      </c>
+      <c r="D16">
+        <v>10000</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
-        <v>1.2313776016235349</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.4544022083282471</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.99068389712902172</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.9842330454903957</v>
+      <c r="F16">
+        <v>3.425173282623291</v>
+      </c>
+      <c r="G16">
+        <v>11.66375160217285</v>
+      </c>
+      <c r="H16">
+        <v>0.9740864864931971</v>
+      </c>
+      <c r="I16">
+        <v>0.873555018465781</v>
       </c>
     </row>
   </sheetData>
